--- a/myapp/files/9_MethodComparePercent/Scenario 286.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 286.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>2046</v>
+        <v>7152</v>
       </c>
       <c r="F2" t="n">
-        <v>1.9440353460972</v>
+        <v>1.78155078615412</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.66666666666667</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2541</v>
+        <v>8535</v>
       </c>
       <c r="F3" t="n">
-        <v>2.41436647821749</v>
+        <v>2.12605368565792</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.33333333333333</v>
+        <v>1.3953488372093</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1056</v>
+        <v>1278</v>
       </c>
       <c r="F4" t="n">
-        <v>1.00337308185662</v>
+        <v>0.31834758175405</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.66666666666667</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>216</v>
+        <v>1318</v>
       </c>
       <c r="F5" t="n">
-        <v>0.205235403107036</v>
+        <v>0.328311512325382</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.66666666666667</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>378</v>
+        <v>1613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.359161955437313</v>
+        <v>0.401795500288954</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.66666666666667</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7599</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.89289771028875</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.930232558139535</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1025</v>
+        <v>14160</v>
       </c>
       <c r="F8" t="n">
-        <v>0.973918000855147</v>
+        <v>3.52723142225145</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -821,10 +821,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>1.66666666666667</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="K8" t="n">
         <v>3</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2153</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.536308563001933</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.3953488372093</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>2052</v>
+        <v>4316</v>
       </c>
       <c r="F10" t="n">
-        <v>1.94973632951684</v>
+        <v>1.0751081086467</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>1.66666666666667</v>
+        <v>1.3953488372093</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2052</v>
+        <v>4852</v>
       </c>
       <c r="F11" t="n">
-        <v>1.94973632951684</v>
+        <v>1.20862477830254</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.66666666666667</v>
+        <v>1.3953488372093</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1428</v>
+        <v>9447</v>
       </c>
       <c r="F12" t="n">
-        <v>1.35683405387429</v>
+        <v>2.35323130268428</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.66666666666667</v>
+        <v>1.86046511627907</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>7595</v>
+        <v>23113</v>
       </c>
       <c r="F13" t="n">
-        <v>7.21649484536082</v>
+        <v>5.75740818237978</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>6.15384615384615</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>5.58139534883721</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>14178</v>
+        <v>40292</v>
       </c>
       <c r="F14" t="n">
-        <v>13.4714238206091</v>
+        <v>10.0366672645025</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>9.23076923076923</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>11.6666666666667</v>
+        <v>8.83720930232558</v>
       </c>
       <c r="K14" t="n">
         <v>10</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>4381</v>
+        <v>17215</v>
       </c>
       <c r="F15" t="n">
-        <v>4.16266806024039</v>
+        <v>4.28822661963691</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.69230769230769</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>6.51162790697674</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>1620</v>
+        <v>3187</v>
       </c>
       <c r="F16" t="n">
-        <v>1.53926552330277</v>
+        <v>0.793876168270859</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.33333333333333</v>
+        <v>2.32558139534884</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>19136</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4.76674438532512</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.11627906976744</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>2492</v>
+        <v>32213</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3678084469571</v>
+        <v>8.02420238735776</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -1201,10 +1201,10 @@
         <v>9.23076923076923</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
-        <v>3.33333333333333</v>
+        <v>7.44186046511628</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>4555</v>
+        <v>40481</v>
       </c>
       <c r="F19" t="n">
-        <v>4.32799657940995</v>
+        <v>10.083746836452</v>
       </c>
       <c r="G19" t="n">
         <v>11</v>
@@ -1239,10 +1239,10 @@
         <v>16.9230769230769</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J19" t="n">
-        <v>3.33333333333333</v>
+        <v>10.2325581395349</v>
       </c>
       <c r="K19" t="n">
         <v>8</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6458</v>
+        <v>20152</v>
       </c>
       <c r="F20" t="n">
-        <v>6.13615848733907</v>
+        <v>5.01982822183695</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>15.3846153846154</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>7.44186046511628</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2600</v>
+        <v>6515</v>
       </c>
       <c r="F21" t="n">
-        <v>2.47042614851062</v>
+        <v>1.62287519180566</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.33333333333333</v>
+        <v>3.25581395348837</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>7911</v>
+        <v>30039</v>
       </c>
       <c r="F22" t="n">
-        <v>7.51674663879519</v>
+        <v>7.48266276080588</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1353,10 +1353,10 @@
         <v>3.07692307692308</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J22" t="n">
-        <v>8.33333333333333</v>
+        <v>7.44186046511628</v>
       </c>
       <c r="K22" t="n">
         <v>3</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>13457</v>
+        <v>41941</v>
       </c>
       <c r="F23" t="n">
-        <v>12.786355646349</v>
+        <v>10.4474303023057</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1391,10 +1391,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>8.37209302325581</v>
       </c>
       <c r="K23" t="n">
         <v>8</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>12582</v>
+        <v>35131</v>
       </c>
       <c r="F24" t="n">
-        <v>11.9549622309848</v>
+        <v>8.75107112253642</v>
       </c>
       <c r="G24" t="n">
         <v>7</v>
@@ -1429,10 +1429,10 @@
         <v>10.7692307692308</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J24" t="n">
-        <v>8.33333333333333</v>
+        <v>7.44186046511628</v>
       </c>
       <c r="K24" t="n">
         <v>7</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>6399</v>
+        <v>12519</v>
       </c>
       <c r="F25" t="n">
-        <v>6.08009881704594</v>
+        <v>3.11846117056256</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1467,10 +1467,10 @@
         <v>4.61538461538462</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>2.7906976744186</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>8223</v>
+        <v>17091</v>
       </c>
       <c r="F26" t="n">
-        <v>7.81319777661647</v>
+        <v>4.25733843486579</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.53846153846154</v>
       </c>
       <c r="I26" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>6.66666666666667</v>
+        <v>3.25581395348837</v>
       </c>
       <c r="K26" t="n">
         <v>3</v>
